--- a/tmp_client/doc/TMP_EIT_suites/radiant/silicon_09_Jedi_D8.xlsx
+++ b/tmp_client/doc/TMP_EIT_suites/radiant/silicon_09_Jedi_D8.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jwang1\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\repository\tmp_client\doc\TMP_EIT_suites\radiant\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57CEEBED-2172-4AFA-B5DB-7D941383E8EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33B8ED7A-200D-4861-9CAE-B3AC6DAA4711}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="BBPw5sjxCCUVqKqDFh1VvlGl+6jBsyEv58ubpDIjFduKT4EttifNtZLgNn2j4jGi/bvDsFNRyO0+XWiClC3JHw==" workbookSaltValue="FQsz7bLsuDdqgfH6Nya7QA==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -20,28 +20,28 @@
     <sheet name="comments" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">case!$A$2:$AE$101</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">case!$A$2:$AE$100</definedName>
     <definedName name="Z_16B2C8B3_13FA_43FB_96C1_3763C72619A6_.wvu.FilterData" localSheetId="1" hidden="1">case!$A$2:$AE$2</definedName>
     <definedName name="Z_179F0E1F_F6F7_410E_B883_54B8A90BA550_.wvu.FilterData" localSheetId="1" hidden="1">case!$A$2:$AE$2</definedName>
     <definedName name="Z_1F35143E_328B_4EDC_927C_C18A57070EA0_.wvu.FilterData" localSheetId="1" hidden="1">case!$A$2:$AE$2</definedName>
-    <definedName name="Z_39A3C600_CBEE_40C9_80F0_0CFC304055C6_.wvu.FilterData" localSheetId="1" hidden="1">case!$A$2:$AE$101</definedName>
-    <definedName name="Z_4BA09E17_24A5_4F6D_8CB6_7B3DF9B00FDE_.wvu.FilterData" localSheetId="1" hidden="1">case!$A$2:$AE$101</definedName>
+    <definedName name="Z_39A3C600_CBEE_40C9_80F0_0CFC304055C6_.wvu.FilterData" localSheetId="1" hidden="1">case!$A$2:$AE$100</definedName>
+    <definedName name="Z_4BA09E17_24A5_4F6D_8CB6_7B3DF9B00FDE_.wvu.FilterData" localSheetId="1" hidden="1">case!$A$2:$AE$100</definedName>
     <definedName name="Z_E811CF45_D5B3_4449_84AE_1514F9E9258F_.wvu.FilterData" localSheetId="1" hidden="1">case!$A$2:$AE$2</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
   <customWorkbookViews>
+    <customWorkbookView name="Jason Wang - Personal View" guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
+    <customWorkbookView name="Cherry Xu - Personal View" guid="{179F0E1F-F6F7-410E-B883-54B8A90BA550}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1916" windowHeight="835" activeSheetId="2"/>
+    <customWorkbookView name="Xueying Li - Personal View" guid="{16B2C8B3-13FA-43FB-96C1-3763C72619A6}" mergeInterval="0" personalView="1" yWindow="337" windowWidth="1878" windowHeight="703" activeSheetId="1"/>
+    <customWorkbookView name="Jeffrey Ye - Personal View" guid="{1F35143E-328B-4EDC-927C-C18A57070EA0}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="2"/>
+    <customWorkbookView name="Xuan Gao - Personal View" guid="{4BA09E17-24A5-4F6D-8CB6-7B3DF9B00FDE}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="3"/>
     <customWorkbookView name="Leijie Sun - Personal View" guid="{39A3C600-CBEE-40C9-80F0-0CFC304055C6}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="-8" windowWidth="1936" windowHeight="1096" activeSheetId="2"/>
-    <customWorkbookView name="Xuan Gao - Personal View" guid="{4BA09E17-24A5-4F6D-8CB6-7B3DF9B00FDE}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="3"/>
-    <customWorkbookView name="Jeffrey Ye - Personal View" guid="{1F35143E-328B-4EDC-927C-C18A57070EA0}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="2"/>
-    <customWorkbookView name="Xueying Li - Personal View" guid="{16B2C8B3-13FA-43FB-96C1-3763C72619A6}" mergeInterval="0" personalView="1" yWindow="337" windowWidth="1878" windowHeight="703" activeSheetId="1"/>
-    <customWorkbookView name="Cherry Xu - Personal View" guid="{179F0E1F-F6F7-410E-B883-54B8A90BA550}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1916" windowHeight="835" activeSheetId="2"/>
-    <customWorkbookView name="Jason Wang - Personal View" guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
   </customWorkbookViews>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="888" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="378">
   <si>
     <t>[suite_info]</t>
   </si>
@@ -1130,9 +1130,6 @@
   </si>
   <si>
     <t>00_primitive/06_DDR/18_ODDRX2_22_gddrx2</t>
-  </si>
-  <si>
-    <t>00_primitive/06_DDR/21_ODDRX4_26_gddrx4</t>
   </si>
   <si>
     <t>00_primitive/06_DDR/24_ODDRX5_27_gddrx5</t>
@@ -2298,7 +2295,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="12" fillId="7" borderId="7" xfId="13" applyNumberFormat="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -2306,13 +2303,13 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="7" xfId="13" applyNumberFormat="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="47">
@@ -2372,7 +2369,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="47" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="47" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="47" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="47" applyBorder="1" applyAlignment="1">
@@ -2408,24 +2405,15 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="22" xfId="47" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="47" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="35" xfId="47" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="35" xfId="47" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="36" xfId="47" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="20" xfId="47" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="24" xfId="47" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="41" xfId="47" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2453,13 +2441,10 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="49" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="47" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="47" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="47" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="47" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="47" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="21" fillId="0" borderId="15" xfId="47" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -2468,9 +2453,6 @@
     <xf numFmtId="165" fontId="21" fillId="0" borderId="16" xfId="47" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="47" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="21" fillId="0" borderId="18" xfId="47" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2483,13 +2465,13 @@
     <xf numFmtId="165" fontId="21" fillId="0" borderId="24" xfId="47" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="42" xfId="47" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="42" xfId="47" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="43" xfId="47" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="43" xfId="47" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="44" xfId="47" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="44" xfId="47" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="21" fillId="0" borderId="21" xfId="47" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -2498,9 +2480,6 @@
     <xf numFmtId="165" fontId="21" fillId="0" borderId="22" xfId="47" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="24" xfId="47" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="12" fillId="7" borderId="27" xfId="13" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2513,76 +2492,49 @@
     <xf numFmtId="49" fontId="12" fillId="7" borderId="7" xfId="13" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="37" xfId="47" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="38" xfId="47" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="39" xfId="47" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" xfId="47" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="47" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="47" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="47" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" xfId="47" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="47" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="47" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="47" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="47" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="47" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="47" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="47" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" xfId="47" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="25" xfId="47" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="33" xfId="47" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="26" xfId="47" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="26" xfId="47" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="37" xfId="47" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="47" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="47" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="38" xfId="47" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="47" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="39" xfId="47" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="24" xfId="47" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="22" xfId="47" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="47" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="35" xfId="47" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="25" xfId="47" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="47" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="47" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="24" xfId="47" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="35" xfId="47" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="47" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="24" xfId="47" applyBorder="1" applyAlignment="1">
@@ -2602,17 +2554,44 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="37" xfId="48" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="38" xfId="48" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="39" xfId="48" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="47" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="47" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" xfId="47" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" xfId="47" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="33" xfId="47" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="47" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="47" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="47" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="26" xfId="47" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="37" xfId="47" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="38" xfId="47" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="39" xfId="47" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="37" xfId="47" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="38" xfId="47" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="39" xfId="47" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" xfId="47" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="47" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
@@ -5202,9 +5181,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -5242,9 +5221,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5277,26 +5256,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5329,26 +5291,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -5525,13 +5470,13 @@
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="78.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" style="2" customWidth="1"/>
     <col min="3" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -5540,7 +5485,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -5548,7 +5493,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -5556,7 +5501,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -5564,12 +5509,12 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="B5" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -5590,7 +5535,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -5712,33 +5657,33 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="YmCN3H0qEpuBK1Of4Bqt8h65mbUG9KbGFgylful0HnLFU2z19WKw0BmH3f3xjntwgfMRfsGFKG655VYRb9YmoQ==" saltValue="/gLkqMUKriPrylhqUd3McA==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <customSheetViews>
-    <customSheetView guid="{39A3C600-CBEE-40C9-80F0-0CFC304055C6}" topLeftCell="A22">
-      <selection activeCell="B11" sqref="B11"/>
+    <customSheetView guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}">
+      <selection activeCell="G15" sqref="G15"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+    </customSheetView>
+    <customSheetView guid="{179F0E1F-F6F7-410E-B883-54B8A90BA550}">
+      <selection activeCell="B35" sqref="B35"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+    </customSheetView>
+    <customSheetView guid="{16B2C8B3-13FA-43FB-96C1-3763C72619A6}">
+      <selection activeCell="B4" sqref="B4"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+    </customSheetView>
+    <customSheetView guid="{1F35143E-328B-4EDC-927C-C18A57070EA0}">
+      <selection activeCell="B10" sqref="B10"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
     </customSheetView>
     <customSheetView guid="{4BA09E17-24A5-4F6D-8CB6-7B3DF9B00FDE}" topLeftCell="A28">
       <selection activeCell="L16" sqref="L16"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-    </customSheetView>
-    <customSheetView guid="{1F35143E-328B-4EDC-927C-C18A57070EA0}">
-      <selection activeCell="B10" sqref="B10"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
-    </customSheetView>
-    <customSheetView guid="{16B2C8B3-13FA-43FB-96C1-3763C72619A6}">
-      <selection activeCell="B4" sqref="B4"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
-    </customSheetView>
-    <customSheetView guid="{179F0E1F-F6F7-410E-B883-54B8A90BA550}">
-      <selection activeCell="B35" sqref="B35"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
     </customSheetView>
-    <customSheetView guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}">
-      <selection activeCell="G15" sqref="G15"/>
+    <customSheetView guid="{39A3C600-CBEE-40C9-80F0-0CFC304055C6}" topLeftCell="A22">
+      <selection activeCell="B11" sqref="B11"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
     </customSheetView>
@@ -5751,14 +5696,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AE101"/>
+  <dimension ref="A1:AE100"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B71" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B60" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="A2" sqref="A2"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C101" sqref="C101"/>
+      <selection pane="bottomRight" activeCell="B99" sqref="B99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -5791,41 +5736,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="69"/>
-      <c r="P1" s="69"/>
-      <c r="Q1" s="69"/>
-      <c r="R1" s="69"/>
-      <c r="S1" s="69"/>
-      <c r="T1" s="69"/>
-      <c r="U1" s="69"/>
-      <c r="V1" s="69"/>
-      <c r="W1" s="70"/>
-      <c r="X1" s="71" t="s">
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="63"/>
+      <c r="U1" s="63"/>
+      <c r="V1" s="63"/>
+      <c r="W1" s="64"/>
+      <c r="X1" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="Y1" s="71"/>
-      <c r="Z1" s="71"/>
-      <c r="AA1" s="71"/>
-      <c r="AB1" s="71"/>
-      <c r="AC1" s="71"/>
-      <c r="AD1" s="71"/>
-      <c r="AE1" s="71"/>
+      <c r="Y1" s="65"/>
+      <c r="Z1" s="65"/>
+      <c r="AA1" s="65"/>
+      <c r="AB1" s="65"/>
+      <c r="AC1" s="65"/>
+      <c r="AD1" s="65"/>
+      <c r="AE1" s="65"/>
     </row>
     <row r="2" spans="1:31" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
       <c r="A2" s="1" t="s">
@@ -5933,7 +5878,7 @@
         <v>271</v>
       </c>
       <c r="AE3" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="4" spans="1:31">
@@ -5947,7 +5892,7 @@
         <v>271</v>
       </c>
       <c r="AE4" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="5" spans="1:31">
@@ -5969,13 +5914,13 @@
         <v>4</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="S6" s="2" t="s">
         <v>271</v>
       </c>
       <c r="AE6" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="7" spans="1:31">
@@ -5989,7 +5934,7 @@
         <v>271</v>
       </c>
       <c r="AE7" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="8" spans="1:31">
@@ -6003,7 +5948,7 @@
         <v>271</v>
       </c>
       <c r="AE8" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="9" spans="1:31">
@@ -6017,7 +5962,7 @@
         <v>271</v>
       </c>
       <c r="AE9" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="10" spans="1:31">
@@ -6031,7 +5976,7 @@
         <v>271</v>
       </c>
       <c r="AE10" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="11" spans="1:31">
@@ -6045,7 +5990,7 @@
         <v>271</v>
       </c>
       <c r="AE11" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="12" spans="1:31">
@@ -6059,7 +6004,7 @@
         <v>271</v>
       </c>
       <c r="AE12" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="13" spans="1:31">
@@ -6073,7 +6018,7 @@
         <v>271</v>
       </c>
       <c r="AE13" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="14" spans="1:31">
@@ -6087,7 +6032,7 @@
         <v>271</v>
       </c>
       <c r="AE14" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="15" spans="1:31">
@@ -6101,7 +6046,7 @@
         <v>271</v>
       </c>
       <c r="AE15" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="16" spans="1:31">
@@ -6115,7 +6060,7 @@
         <v>271</v>
       </c>
       <c r="AE16" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="17" spans="1:31">
@@ -6129,7 +6074,7 @@
         <v>271</v>
       </c>
       <c r="AE17" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="18" spans="1:31">
@@ -6143,7 +6088,7 @@
         <v>271</v>
       </c>
       <c r="AE18" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="19" spans="1:31">
@@ -6157,7 +6102,7 @@
         <v>271</v>
       </c>
       <c r="AE19" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="20" spans="1:31">
@@ -6171,7 +6116,7 @@
         <v>271</v>
       </c>
       <c r="AE20" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="21" spans="1:31">
@@ -6185,7 +6130,7 @@
         <v>271</v>
       </c>
       <c r="AE21" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="22" spans="1:31">
@@ -6199,7 +6144,7 @@
         <v>271</v>
       </c>
       <c r="AE22" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="23" spans="1:31">
@@ -6227,7 +6172,7 @@
         <v>271</v>
       </c>
       <c r="AE24" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="25" spans="1:31">
@@ -6283,7 +6228,7 @@
         <v>271</v>
       </c>
       <c r="AE28" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="29" spans="1:31">
@@ -6297,7 +6242,7 @@
         <v>271</v>
       </c>
       <c r="AE29" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="30" spans="1:31">
@@ -6311,7 +6256,7 @@
         <v>271</v>
       </c>
       <c r="AE30" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="31" spans="1:31">
@@ -6328,7 +6273,7 @@
         <v>271</v>
       </c>
       <c r="AE31" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="32" spans="1:31">
@@ -6359,7 +6304,7 @@
         <v>271</v>
       </c>
       <c r="AE33" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="34" spans="1:31">
@@ -6373,7 +6318,7 @@
         <v>271</v>
       </c>
       <c r="AE34" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="35" spans="1:31">
@@ -6387,7 +6332,7 @@
         <v>271</v>
       </c>
       <c r="AE35" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="36" spans="1:31">
@@ -6415,7 +6360,7 @@
         <v>271</v>
       </c>
       <c r="AE37" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="38" spans="1:31">
@@ -6429,7 +6374,7 @@
         <v>271</v>
       </c>
       <c r="AE38" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="39" spans="1:31">
@@ -6443,7 +6388,7 @@
         <v>271</v>
       </c>
       <c r="AE39" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="40" spans="1:31">
@@ -6457,7 +6402,7 @@
         <v>271</v>
       </c>
       <c r="AE40" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="41" spans="1:31">
@@ -6471,7 +6416,7 @@
         <v>271</v>
       </c>
       <c r="AE41" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="42" spans="1:31">
@@ -6485,7 +6430,7 @@
         <v>271</v>
       </c>
       <c r="AE42" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="43" spans="1:31">
@@ -6499,7 +6444,7 @@
         <v>271</v>
       </c>
       <c r="AE43" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="44" spans="1:31">
@@ -6513,7 +6458,7 @@
         <v>271</v>
       </c>
       <c r="AE44" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="45" spans="1:31">
@@ -6527,7 +6472,7 @@
         <v>271</v>
       </c>
       <c r="AE45" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="46" spans="1:31">
@@ -6541,7 +6486,7 @@
         <v>271</v>
       </c>
       <c r="AE46" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="47" spans="1:31">
@@ -6555,7 +6500,7 @@
         <v>271</v>
       </c>
       <c r="AE47" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="48" spans="1:31">
@@ -6569,7 +6514,7 @@
         <v>271</v>
       </c>
       <c r="AE48" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="49" spans="1:31">
@@ -6583,7 +6528,7 @@
         <v>271</v>
       </c>
       <c r="AE49" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="50" spans="1:31">
@@ -6597,7 +6542,7 @@
         <v>271</v>
       </c>
       <c r="AE50" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="51" spans="1:31">
@@ -6611,7 +6556,7 @@
         <v>271</v>
       </c>
       <c r="AE51" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="52" spans="1:31">
@@ -6625,7 +6570,7 @@
         <v>271</v>
       </c>
       <c r="AE52" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="53" spans="1:31">
@@ -6639,7 +6584,7 @@
         <v>271</v>
       </c>
       <c r="AE53" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="54" spans="1:31">
@@ -6653,7 +6598,7 @@
         <v>271</v>
       </c>
       <c r="AE54" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="55" spans="1:31">
@@ -6667,7 +6612,7 @@
         <v>271</v>
       </c>
       <c r="AE55" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="56" spans="1:31">
@@ -6681,7 +6626,7 @@
         <v>271</v>
       </c>
       <c r="AE56" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="57" spans="1:31">
@@ -6695,7 +6640,7 @@
         <v>271</v>
       </c>
       <c r="AE57" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="58" spans="1:31">
@@ -6709,7 +6654,7 @@
         <v>271</v>
       </c>
       <c r="AE58" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="59" spans="1:31">
@@ -6723,7 +6668,7 @@
         <v>271</v>
       </c>
       <c r="AE59" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="60" spans="1:31">
@@ -6737,7 +6682,7 @@
         <v>271</v>
       </c>
       <c r="AE60" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="61" spans="1:31">
@@ -6751,7 +6696,7 @@
         <v>271</v>
       </c>
       <c r="AE61" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="62" spans="1:31">
@@ -6765,7 +6710,7 @@
         <v>271</v>
       </c>
       <c r="AE62" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="63" spans="1:31">
@@ -6779,7 +6724,7 @@
         <v>271</v>
       </c>
       <c r="AE63" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="64" spans="1:31">
@@ -6793,7 +6738,7 @@
         <v>271</v>
       </c>
       <c r="AE64" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="65" spans="1:31">
@@ -6807,7 +6752,7 @@
         <v>271</v>
       </c>
       <c r="AE65" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="66" spans="1:31">
@@ -6821,7 +6766,7 @@
         <v>271</v>
       </c>
       <c r="AE66" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="67" spans="1:31">
@@ -6835,7 +6780,7 @@
         <v>271</v>
       </c>
       <c r="AE67" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="68" spans="1:31">
@@ -6849,7 +6794,7 @@
         <v>271</v>
       </c>
       <c r="AE68" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="69" spans="1:31">
@@ -6863,7 +6808,7 @@
         <v>271</v>
       </c>
       <c r="AE69" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="70" spans="1:31">
@@ -6877,7 +6822,7 @@
         <v>271</v>
       </c>
       <c r="AE70" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="71" spans="1:31">
@@ -6891,7 +6836,7 @@
         <v>271</v>
       </c>
       <c r="AE71" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="72" spans="1:31">
@@ -6905,7 +6850,7 @@
         <v>271</v>
       </c>
       <c r="AE72" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="73" spans="1:31">
@@ -6919,7 +6864,7 @@
         <v>271</v>
       </c>
       <c r="AE73" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="74" spans="1:31">
@@ -6933,7 +6878,7 @@
         <v>271</v>
       </c>
       <c r="AE74" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="75" spans="1:31">
@@ -6947,7 +6892,7 @@
         <v>271</v>
       </c>
       <c r="AE75" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="76" spans="1:31">
@@ -6961,7 +6906,7 @@
         <v>271</v>
       </c>
       <c r="AE76" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="77" spans="1:31">
@@ -6975,7 +6920,7 @@
         <v>271</v>
       </c>
       <c r="AE77" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="78" spans="1:31">
@@ -6989,7 +6934,7 @@
         <v>271</v>
       </c>
       <c r="AE78" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="79" spans="1:31">
@@ -7003,7 +6948,7 @@
         <v>271</v>
       </c>
       <c r="AE79" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="80" spans="1:31">
@@ -7017,7 +6962,7 @@
         <v>271</v>
       </c>
       <c r="AE80" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="81" spans="1:31">
@@ -7031,7 +6976,7 @@
         <v>271</v>
       </c>
       <c r="AE81" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="82" spans="1:31">
@@ -7045,7 +6990,7 @@
         <v>271</v>
       </c>
       <c r="AE82" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="83" spans="1:31">
@@ -7059,7 +7004,7 @@
         <v>271</v>
       </c>
       <c r="AE83" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="84" spans="1:31">
@@ -7073,7 +7018,7 @@
         <v>271</v>
       </c>
       <c r="AE84" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="85" spans="1:31">
@@ -7087,7 +7032,7 @@
         <v>271</v>
       </c>
       <c r="AE85" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="86" spans="1:31">
@@ -7101,7 +7046,7 @@
         <v>271</v>
       </c>
       <c r="AE86" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="87" spans="1:31">
@@ -7115,7 +7060,7 @@
         <v>271</v>
       </c>
       <c r="AE87" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="88" spans="1:31">
@@ -7129,7 +7074,7 @@
         <v>271</v>
       </c>
       <c r="AE88" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="89" spans="1:31">
@@ -7143,7 +7088,7 @@
         <v>271</v>
       </c>
       <c r="AE89" s="2" t="s">
-        <v>377</v>
+        <v>273</v>
       </c>
     </row>
     <row r="90" spans="1:31">
@@ -7157,7 +7102,7 @@
         <v>271</v>
       </c>
       <c r="AE90" s="2" t="s">
-        <v>273</v>
+        <v>376</v>
       </c>
     </row>
     <row r="91" spans="1:31">
@@ -7171,7 +7116,7 @@
         <v>271</v>
       </c>
       <c r="AE91" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="92" spans="1:31">
@@ -7185,7 +7130,7 @@
         <v>271</v>
       </c>
       <c r="AE92" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="93" spans="1:31">
@@ -7199,7 +7144,7 @@
         <v>271</v>
       </c>
       <c r="AE93" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="94" spans="1:31">
@@ -7213,7 +7158,7 @@
         <v>271</v>
       </c>
       <c r="AE94" s="2" t="s">
-        <v>377</v>
+        <v>273</v>
       </c>
     </row>
     <row r="95" spans="1:31">
@@ -7227,7 +7172,7 @@
         <v>271</v>
       </c>
       <c r="AE95" s="2" t="s">
-        <v>273</v>
+        <v>376</v>
       </c>
     </row>
     <row r="96" spans="1:31">
@@ -7241,7 +7186,7 @@
         <v>271</v>
       </c>
       <c r="AE96" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="97" spans="1:31">
@@ -7255,7 +7200,7 @@
         <v>271</v>
       </c>
       <c r="AE97" s="2" t="s">
-        <v>377</v>
+        <v>273</v>
       </c>
     </row>
     <row r="98" spans="1:31">
@@ -7283,7 +7228,7 @@
         <v>271</v>
       </c>
       <c r="AE99" s="2" t="s">
-        <v>273</v>
+        <v>376</v>
       </c>
     </row>
     <row r="100" spans="1:31">
@@ -7297,68 +7242,54 @@
         <v>271</v>
       </c>
       <c r="AE100" s="2" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="101" spans="1:31">
-      <c r="A101" s="2">
-        <v>99</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="S101" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="AE101" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <autoFilter ref="A2:AE101" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="A2:AE100" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <customSheetViews>
-    <customSheetView guid="{39A3C600-CBEE-40C9-80F0-0CFC304055C6}" scale="85" showAutoFilter="1">
-      <pane xSplit="1" ySplit="2" topLeftCell="I86" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="AE100" sqref="AE100"/>
+    <customSheetView guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}" scale="85" showAutoFilter="1">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="C25" sqref="C25"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-      <autoFilter ref="A2:AE301" xr:uid="{BD1FABB2-6FBC-43CD-9D27-CC08C989125F}"/>
+      <autoFilter ref="A2:AE2" xr:uid="{0F36ED35-C4C0-404D-AFE1-46BFE33609D6}"/>
+    </customSheetView>
+    <customSheetView guid="{179F0E1F-F6F7-410E-B883-54B8A90BA550}" scale="85" showAutoFilter="1">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="C23" sqref="C23"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+      <autoFilter ref="A2:Y2" xr:uid="{68C92F4E-D043-474D-9736-E6AF9195713E}"/>
+    </customSheetView>
+    <customSheetView guid="{16B2C8B3-13FA-43FB-96C1-3763C72619A6}" scale="85" showAutoFilter="1">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="H23" sqref="H23"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+      <autoFilter ref="A2:Y2" xr:uid="{1C0CCD45-4DCF-449F-8E9E-B729D12E76B8}"/>
+    </customSheetView>
+    <customSheetView guid="{1F35143E-328B-4EDC-927C-C18A57070EA0}" scale="85" showAutoFilter="1">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+      <autoFilter ref="A2:AE2" xr:uid="{4663B840-4452-40BC-AD33-AF188D185A5D}"/>
     </customSheetView>
     <customSheetView guid="{4BA09E17-24A5-4F6D-8CB6-7B3DF9B00FDE}" scale="85" showAutoFilter="1">
       <pane xSplit="1" ySplit="2" topLeftCell="B96" activePane="bottomRight" state="frozen"/>
       <selection pane="bottomRight" activeCell="C120" sqref="C120"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-      <autoFilter ref="A2:AE330" xr:uid="{6B655028-71BE-4EB2-BFD8-D2AE0CF2403A}"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+      <autoFilter ref="A2:AE330" xr:uid="{6D2ED985-4CBA-4295-B393-EA01D5DFE43C}"/>
     </customSheetView>
-    <customSheetView guid="{1F35143E-328B-4EDC-927C-C18A57070EA0}" scale="85" showAutoFilter="1">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
-      <autoFilter ref="A2:AE2" xr:uid="{0C0CE5D6-7276-4934-99A1-ADDEF525A09A}"/>
-    </customSheetView>
-    <customSheetView guid="{16B2C8B3-13FA-43FB-96C1-3763C72619A6}" scale="85" showAutoFilter="1">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="H23" sqref="H23"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
-      <autoFilter ref="A2:Y2" xr:uid="{59249E7C-3DA3-4E51-8973-347E81E50E3E}"/>
-    </customSheetView>
-    <customSheetView guid="{179F0E1F-F6F7-410E-B883-54B8A90BA550}" scale="85" showAutoFilter="1">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="C23" sqref="C23"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
-      <autoFilter ref="A2:Y2" xr:uid="{13BB791D-EDDB-4A55-BA8C-40F61ACB94E1}"/>
-    </customSheetView>
-    <customSheetView guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}" scale="85" showAutoFilter="1">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="C25" sqref="C25"/>
+    <customSheetView guid="{39A3C600-CBEE-40C9-80F0-0CFC304055C6}" scale="85" showAutoFilter="1">
+      <pane xSplit="1" ySplit="2" topLeftCell="I86" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="AE100" sqref="AE100"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
-      <autoFilter ref="A2:AE2" xr:uid="{000180D9-4580-445A-945E-3C25A7837CFF}"/>
+      <autoFilter ref="A2:AE301" xr:uid="{024EC63B-AC33-49C6-80DE-C615C51C304E}"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="2">
@@ -7499,17 +7430,17 @@
       <c r="E111" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="F111" s="105" t="s">
+      <c r="F111" s="68" t="s">
         <v>80</v>
       </c>
-      <c r="G111" s="106"/>
-      <c r="H111" s="106"/>
-      <c r="I111" s="106"/>
-      <c r="J111" s="106"/>
-      <c r="K111" s="106"/>
-      <c r="L111" s="106"/>
-      <c r="M111" s="106"/>
-      <c r="N111" s="107"/>
+      <c r="G111" s="69"/>
+      <c r="H111" s="69"/>
+      <c r="I111" s="69"/>
+      <c r="J111" s="69"/>
+      <c r="K111" s="69"/>
+      <c r="L111" s="69"/>
+      <c r="M111" s="69"/>
+      <c r="N111" s="70"/>
     </row>
     <row r="112" spans="1:14">
       <c r="A112" s="11" t="s">
@@ -8399,7 +8330,7 @@
       <c r="A148" s="26">
         <v>1</v>
       </c>
-      <c r="B148" s="90" t="s">
+      <c r="B148" s="71" t="s">
         <v>3</v>
       </c>
       <c r="C148" s="27" t="s">
@@ -8425,7 +8356,7 @@
       <c r="A149" s="26">
         <v>2</v>
       </c>
-      <c r="B149" s="91"/>
+      <c r="B149" s="72"/>
       <c r="C149" s="28" t="s">
         <v>129</v>
       </c>
@@ -8447,7 +8378,7 @@
       <c r="A150" s="26">
         <v>3</v>
       </c>
-      <c r="B150" s="91"/>
+      <c r="B150" s="72"/>
       <c r="C150" s="28" t="s">
         <v>9</v>
       </c>
@@ -8467,7 +8398,7 @@
       <c r="A151" s="26">
         <v>4</v>
       </c>
-      <c r="B151" s="91"/>
+      <c r="B151" s="72"/>
       <c r="C151" s="28" t="s">
         <v>131</v>
       </c>
@@ -8491,7 +8422,7 @@
       <c r="A152" s="26">
         <v>5</v>
       </c>
-      <c r="B152" s="91"/>
+      <c r="B152" s="72"/>
       <c r="C152" s="27" t="s">
         <v>133</v>
       </c>
@@ -8515,7 +8446,7 @@
       <c r="A153" s="26">
         <v>6</v>
       </c>
-      <c r="B153" s="91"/>
+      <c r="B153" s="72"/>
       <c r="C153" s="27" t="s">
         <v>137</v>
       </c>
@@ -8539,7 +8470,7 @@
       <c r="A154" s="26">
         <v>7</v>
       </c>
-      <c r="B154" s="91"/>
+      <c r="B154" s="72"/>
       <c r="C154" s="28" t="s">
         <v>140</v>
       </c>
@@ -8561,7 +8492,7 @@
       <c r="A155" s="26">
         <v>8</v>
       </c>
-      <c r="B155" s="91"/>
+      <c r="B155" s="72"/>
       <c r="C155" s="27" t="s">
         <v>141</v>
       </c>
@@ -8585,7 +8516,7 @@
       <c r="A156" s="26">
         <v>9</v>
       </c>
-      <c r="B156" s="91"/>
+      <c r="B156" s="72"/>
       <c r="C156" s="27" t="s">
         <v>142</v>
       </c>
@@ -8609,7 +8540,7 @@
       <c r="A157" s="26">
         <v>10</v>
       </c>
-      <c r="B157" s="91"/>
+      <c r="B157" s="72"/>
       <c r="C157" s="28" t="s">
         <v>143</v>
       </c>
@@ -8633,7 +8564,7 @@
       <c r="A158" s="26">
         <v>11</v>
       </c>
-      <c r="B158" s="91"/>
+      <c r="B158" s="72"/>
       <c r="C158" s="28" t="s">
         <v>144</v>
       </c>
@@ -8657,7 +8588,7 @@
       <c r="A159" s="26">
         <v>12</v>
       </c>
-      <c r="B159" s="91"/>
+      <c r="B159" s="72"/>
       <c r="C159" s="28" t="s">
         <v>146</v>
       </c>
@@ -8679,7 +8610,7 @@
       <c r="A160" s="26">
         <v>13</v>
       </c>
-      <c r="B160" s="85"/>
+      <c r="B160" s="73"/>
       <c r="C160" s="28" t="s">
         <v>54</v>
       </c>
@@ -8703,7 +8634,7 @@
       <c r="A161" s="26">
         <v>14</v>
       </c>
-      <c r="B161" s="81" t="s">
+      <c r="B161" s="66" t="s">
         <v>4</v>
       </c>
       <c r="C161" s="28" t="s">
@@ -8729,7 +8660,7 @@
       <c r="A162" s="26">
         <v>15</v>
       </c>
-      <c r="B162" s="80"/>
+      <c r="B162" s="67"/>
       <c r="C162" s="28" t="s">
         <v>154</v>
       </c>
@@ -8753,7 +8684,7 @@
       <c r="A163" s="26">
         <v>16</v>
       </c>
-      <c r="B163" s="90" t="s">
+      <c r="B163" s="71" t="s">
         <v>5</v>
       </c>
       <c r="C163" s="28" t="s">
@@ -8777,7 +8708,7 @@
       <c r="A164" s="26">
         <v>17</v>
       </c>
-      <c r="B164" s="108"/>
+      <c r="B164" s="74"/>
       <c r="C164" s="27" t="s">
         <v>158</v>
       </c>
@@ -8799,7 +8730,7 @@
       <c r="A165" s="26">
         <v>18</v>
       </c>
-      <c r="B165" s="85"/>
+      <c r="B165" s="73"/>
       <c r="C165" s="27" t="s">
         <v>160</v>
       </c>
@@ -8819,7 +8750,7 @@
       <c r="A166" s="26">
         <v>19</v>
       </c>
-      <c r="B166" s="81" t="s">
+      <c r="B166" s="66" t="s">
         <v>6</v>
       </c>
       <c r="C166" s="28" t="s">
@@ -8843,7 +8774,7 @@
       <c r="A167" s="26">
         <v>20</v>
       </c>
-      <c r="B167" s="80"/>
+      <c r="B167" s="67"/>
       <c r="C167" s="28" t="s">
         <v>165</v>
       </c>
@@ -8863,7 +8794,7 @@
       <c r="A168" s="26">
         <v>21</v>
       </c>
-      <c r="B168" s="80"/>
+      <c r="B168" s="67"/>
       <c r="C168" s="28" t="s">
         <v>166</v>
       </c>
@@ -8883,7 +8814,7 @@
       <c r="A169" s="26">
         <v>22</v>
       </c>
-      <c r="B169" s="80"/>
+      <c r="B169" s="67"/>
       <c r="C169" s="28" t="s">
         <v>167</v>
       </c>
@@ -8903,7 +8834,7 @@
       <c r="A170" s="26">
         <v>23</v>
       </c>
-      <c r="B170" s="80"/>
+      <c r="B170" s="67"/>
       <c r="C170" s="28" t="s">
         <v>168</v>
       </c>
@@ -8923,7 +8854,7 @@
       <c r="A171" s="26">
         <v>24</v>
       </c>
-      <c r="B171" s="80"/>
+      <c r="B171" s="67"/>
       <c r="C171" s="28" t="s">
         <v>169</v>
       </c>
@@ -8943,7 +8874,7 @@
       <c r="A172" s="26">
         <v>25</v>
       </c>
-      <c r="B172" s="80"/>
+      <c r="B172" s="67"/>
       <c r="C172" s="28" t="s">
         <v>170</v>
       </c>
@@ -8963,7 +8894,7 @@
       <c r="A173" s="26">
         <v>26</v>
       </c>
-      <c r="B173" s="80"/>
+      <c r="B173" s="67"/>
       <c r="C173" s="28" t="s">
         <v>40</v>
       </c>
@@ -8983,7 +8914,7 @@
       <c r="A174" s="26">
         <v>27</v>
       </c>
-      <c r="B174" s="81" t="s">
+      <c r="B174" s="66" t="s">
         <v>7</v>
       </c>
       <c r="C174" s="28" t="s">
@@ -9007,7 +8938,7 @@
       <c r="A175" s="26">
         <v>28</v>
       </c>
-      <c r="B175" s="80"/>
+      <c r="B175" s="67"/>
       <c r="C175" s="27" t="s">
         <v>174</v>
       </c>
@@ -9029,7 +8960,7 @@
       <c r="A176" s="26">
         <v>29</v>
       </c>
-      <c r="B176" s="80"/>
+      <c r="B176" s="67"/>
       <c r="C176" s="28" t="s">
         <v>177</v>
       </c>
@@ -9051,7 +8982,7 @@
       <c r="A177" s="26">
         <v>30</v>
       </c>
-      <c r="B177" s="90" t="s">
+      <c r="B177" s="71" t="s">
         <v>8</v>
       </c>
       <c r="C177" s="28" t="s">
@@ -9077,7 +9008,7 @@
       <c r="A178" s="31">
         <v>31</v>
       </c>
-      <c r="B178" s="91"/>
+      <c r="B178" s="72"/>
       <c r="C178" s="32" t="s">
         <v>182</v>
       </c>
@@ -9101,7 +9032,7 @@
       <c r="A179" s="23">
         <v>32</v>
       </c>
-      <c r="B179" s="92" t="s">
+      <c r="B179" s="75" t="s">
         <v>184</v>
       </c>
       <c r="C179" s="33" t="s">
@@ -9125,7 +9056,7 @@
       <c r="A180" s="26">
         <v>33</v>
       </c>
-      <c r="B180" s="93"/>
+      <c r="B180" s="76"/>
       <c r="C180" s="27" t="s">
         <v>188</v>
       </c>
@@ -9147,7 +9078,7 @@
       <c r="A181" s="26">
         <v>34</v>
       </c>
-      <c r="B181" s="94"/>
+      <c r="B181" s="77"/>
       <c r="C181" s="34" t="s">
         <v>191</v>
       </c>
@@ -9169,7 +9100,7 @@
       <c r="A182" s="31">
         <v>35</v>
       </c>
-      <c r="B182" s="94"/>
+      <c r="B182" s="77"/>
       <c r="C182" s="34" t="s">
         <v>192</v>
       </c>
@@ -9191,17 +9122,17 @@
       <c r="A183" s="31">
         <v>36</v>
       </c>
-      <c r="B183" s="94"/>
+      <c r="B183" s="77"/>
       <c r="C183" s="34" t="s">
         <v>195</v>
       </c>
-      <c r="D183" s="42" t="s">
+      <c r="D183" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="E183" s="42" t="s">
+      <c r="E183" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="F183" s="42"/>
+      <c r="F183" s="32"/>
       <c r="G183" s="34" t="s">
         <v>253</v>
       </c>
@@ -9211,15 +9142,15 @@
       <c r="A184" s="31">
         <v>37</v>
       </c>
-      <c r="B184" s="94"/>
+      <c r="B184" s="77"/>
       <c r="C184" s="34" t="s">
         <v>247</v>
       </c>
-      <c r="D184" s="42" t="s">
+      <c r="D184" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="E184" s="42"/>
-      <c r="F184" s="42" t="s">
+      <c r="E184" s="32"/>
+      <c r="F184" s="32" t="s">
         <v>248</v>
       </c>
       <c r="G184" s="34" t="s">
@@ -9233,7 +9164,7 @@
       <c r="A185" s="35">
         <v>38</v>
       </c>
-      <c r="B185" s="89"/>
+      <c r="B185" s="78"/>
       <c r="C185" s="36" t="s">
         <v>251</v>
       </c>
@@ -9260,7 +9191,7 @@
       </c>
     </row>
     <row r="187" spans="1:8">
-      <c r="B187" s="37" t="s">
+      <c r="B187" s="6" t="s">
         <v>198</v>
       </c>
     </row>
@@ -9281,280 +9212,280 @@
       <c r="A199" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="B199" s="38" t="s">
+      <c r="B199" s="37" t="s">
         <v>203</v>
       </c>
-      <c r="C199" s="95" t="s">
+      <c r="C199" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="D199" s="95"/>
-      <c r="E199" s="95"/>
-      <c r="F199" s="39" t="s">
+      <c r="D199" s="79"/>
+      <c r="E199" s="79"/>
+      <c r="F199" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="G199" s="40" t="s">
+      <c r="G199" s="38" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="200" spans="1:7">
-      <c r="A200" s="78" t="s">
+      <c r="A200" s="80" t="s">
         <v>205</v>
       </c>
-      <c r="B200" s="80" t="s">
+      <c r="B200" s="67" t="s">
         <v>206</v>
       </c>
-      <c r="C200" s="97" t="s">
+      <c r="C200" s="82" t="s">
         <v>55</v>
       </c>
-      <c r="D200" s="98"/>
-      <c r="E200" s="98"/>
+      <c r="D200" s="83"/>
+      <c r="E200" s="83"/>
       <c r="F200" s="28" t="s">
         <v>207</v>
       </c>
-      <c r="G200" s="41" t="s">
+      <c r="G200" s="39" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="201" spans="1:7">
-      <c r="A201" s="78"/>
-      <c r="B201" s="96"/>
-      <c r="C201" s="99" t="s">
+      <c r="A201" s="80"/>
+      <c r="B201" s="81"/>
+      <c r="C201" s="84" t="s">
         <v>55</v>
       </c>
-      <c r="D201" s="100"/>
-      <c r="E201" s="100"/>
+      <c r="D201" s="85"/>
+      <c r="E201" s="85"/>
       <c r="F201" s="32" t="s">
         <v>208</v>
       </c>
-      <c r="G201" s="43" t="s">
+      <c r="G201" s="40" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="202" spans="1:7">
-      <c r="A202" s="78"/>
-      <c r="B202" s="80" t="s">
+      <c r="A202" s="80"/>
+      <c r="B202" s="67" t="s">
         <v>209</v>
       </c>
-      <c r="C202" s="101" t="s">
+      <c r="C202" s="86" t="s">
         <v>210</v>
       </c>
-      <c r="D202" s="101"/>
-      <c r="E202" s="101"/>
+      <c r="D202" s="86"/>
+      <c r="E202" s="86"/>
       <c r="F202" s="28" t="s">
         <v>207</v>
       </c>
-      <c r="G202" s="41" t="s">
+      <c r="G202" s="39" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="203" spans="1:7">
-      <c r="A203" s="78"/>
-      <c r="B203" s="80"/>
-      <c r="C203" s="99" t="s">
+      <c r="A203" s="80"/>
+      <c r="B203" s="67"/>
+      <c r="C203" s="84" t="s">
         <v>210</v>
       </c>
-      <c r="D203" s="99"/>
-      <c r="E203" s="99"/>
+      <c r="D203" s="84"/>
+      <c r="E203" s="84"/>
       <c r="F203" s="28" t="s">
         <v>208</v>
       </c>
-      <c r="G203" s="41" t="s">
+      <c r="G203" s="39" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="204" spans="1:7">
-      <c r="A204" s="78"/>
-      <c r="B204" s="96" t="s">
+      <c r="A204" s="80"/>
+      <c r="B204" s="81" t="s">
         <v>211</v>
       </c>
-      <c r="C204" s="102" t="s">
+      <c r="C204" s="87" t="s">
         <v>55</v>
       </c>
-      <c r="D204" s="103"/>
-      <c r="E204" s="104"/>
+      <c r="D204" s="88"/>
+      <c r="E204" s="89"/>
       <c r="F204" s="28" t="s">
         <v>207</v>
       </c>
-      <c r="G204" s="41" t="s">
+      <c r="G204" s="39" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="205" spans="1:7">
-      <c r="A205" s="78"/>
-      <c r="B205" s="85"/>
-      <c r="C205" s="102" t="s">
+      <c r="A205" s="80"/>
+      <c r="B205" s="73"/>
+      <c r="C205" s="87" t="s">
         <v>55</v>
       </c>
-      <c r="D205" s="103"/>
-      <c r="E205" s="104"/>
+      <c r="D205" s="88"/>
+      <c r="E205" s="89"/>
       <c r="F205" s="28" t="s">
         <v>208</v>
       </c>
-      <c r="G205" s="41" t="s">
+      <c r="G205" s="39" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="206" spans="1:7">
-      <c r="A206" s="78"/>
-      <c r="B206" s="80" t="s">
+      <c r="A206" s="80"/>
+      <c r="B206" s="67" t="s">
         <v>212</v>
       </c>
-      <c r="C206" s="101" t="s">
+      <c r="C206" s="86" t="s">
         <v>213</v>
       </c>
-      <c r="D206" s="101"/>
-      <c r="E206" s="101"/>
+      <c r="D206" s="86"/>
+      <c r="E206" s="86"/>
       <c r="F206" s="28" t="s">
         <v>207</v>
       </c>
-      <c r="G206" s="41" t="s">
+      <c r="G206" s="39" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="207" spans="1:7">
-      <c r="A207" s="78"/>
-      <c r="B207" s="80"/>
-      <c r="C207" s="101" t="s">
+      <c r="A207" s="80"/>
+      <c r="B207" s="67"/>
+      <c r="C207" s="86" t="s">
         <v>213</v>
       </c>
-      <c r="D207" s="101"/>
-      <c r="E207" s="101"/>
+      <c r="D207" s="86"/>
+      <c r="E207" s="86"/>
       <c r="F207" s="28" t="s">
         <v>208</v>
       </c>
-      <c r="G207" s="41" t="s">
+      <c r="G207" s="39" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="208" spans="1:7">
-      <c r="A208" s="78" t="s">
+      <c r="A208" s="80" t="s">
         <v>214</v>
       </c>
-      <c r="B208" s="80" t="s">
+      <c r="B208" s="67" t="s">
         <v>215</v>
       </c>
-      <c r="C208" s="81" t="s">
+      <c r="C208" s="66" t="s">
         <v>43</v>
       </c>
-      <c r="D208" s="80"/>
-      <c r="E208" s="80"/>
+      <c r="D208" s="67"/>
+      <c r="E208" s="67"/>
       <c r="F208" s="28" t="s">
         <v>207</v>
       </c>
-      <c r="G208" s="41" t="s">
+      <c r="G208" s="39" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="209" spans="1:7">
-      <c r="A209" s="78"/>
-      <c r="B209" s="80"/>
-      <c r="C209" s="80" t="s">
+      <c r="A209" s="80"/>
+      <c r="B209" s="67"/>
+      <c r="C209" s="67" t="s">
         <v>44</v>
       </c>
-      <c r="D209" s="80"/>
-      <c r="E209" s="80"/>
+      <c r="D209" s="67"/>
+      <c r="E209" s="67"/>
       <c r="F209" s="28" t="s">
         <v>208</v>
       </c>
-      <c r="G209" s="41" t="s">
+      <c r="G209" s="39" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="210" spans="1:7">
-      <c r="A210" s="78"/>
-      <c r="B210" s="80" t="s">
+      <c r="A210" s="80"/>
+      <c r="B210" s="67" t="s">
         <v>217</v>
       </c>
-      <c r="C210" s="80" t="s">
+      <c r="C210" s="67" t="s">
         <v>45</v>
       </c>
-      <c r="D210" s="80"/>
-      <c r="E210" s="80"/>
+      <c r="D210" s="67"/>
+      <c r="E210" s="67"/>
       <c r="F210" s="28" t="s">
         <v>207</v>
       </c>
-      <c r="G210" s="41" t="s">
+      <c r="G210" s="39" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="211" spans="1:7">
-      <c r="A211" s="78"/>
-      <c r="B211" s="80"/>
-      <c r="C211" s="80" t="s">
+      <c r="A211" s="80"/>
+      <c r="B211" s="67"/>
+      <c r="C211" s="67" t="s">
         <v>46</v>
       </c>
-      <c r="D211" s="80"/>
-      <c r="E211" s="80"/>
+      <c r="D211" s="67"/>
+      <c r="E211" s="67"/>
       <c r="F211" s="28" t="s">
         <v>208</v>
       </c>
-      <c r="G211" s="41" t="s">
+      <c r="G211" s="39" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="212" spans="1:7">
-      <c r="A212" s="78" t="s">
+      <c r="A212" s="80" t="s">
         <v>218</v>
       </c>
-      <c r="B212" s="80" t="s">
+      <c r="B212" s="67" t="s">
         <v>219</v>
       </c>
-      <c r="C212" s="81" t="s">
+      <c r="C212" s="66" t="s">
         <v>47</v>
       </c>
-      <c r="D212" s="80"/>
-      <c r="E212" s="80"/>
+      <c r="D212" s="67"/>
+      <c r="E212" s="67"/>
       <c r="F212" s="28" t="s">
         <v>207</v>
       </c>
-      <c r="G212" s="41" t="s">
+      <c r="G212" s="39" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="213" spans="1:7">
-      <c r="A213" s="78"/>
-      <c r="B213" s="80"/>
-      <c r="C213" s="80" t="s">
+      <c r="A213" s="80"/>
+      <c r="B213" s="67"/>
+      <c r="C213" s="67" t="s">
         <v>48</v>
       </c>
-      <c r="D213" s="80"/>
-      <c r="E213" s="80"/>
+      <c r="D213" s="67"/>
+      <c r="E213" s="67"/>
       <c r="F213" s="28" t="s">
         <v>208</v>
       </c>
-      <c r="G213" s="41" t="s">
+      <c r="G213" s="39" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="214" spans="1:7">
-      <c r="A214" s="78"/>
-      <c r="B214" s="80" t="s">
+      <c r="A214" s="80"/>
+      <c r="B214" s="67" t="s">
         <v>220</v>
       </c>
-      <c r="C214" s="81" t="s">
+      <c r="C214" s="66" t="s">
         <v>221</v>
       </c>
-      <c r="D214" s="80"/>
-      <c r="E214" s="80"/>
+      <c r="D214" s="67"/>
+      <c r="E214" s="67"/>
       <c r="F214" s="28" t="s">
         <v>207</v>
       </c>
-      <c r="G214" s="41" t="s">
+      <c r="G214" s="39" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="215" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A215" s="79"/>
-      <c r="B215" s="82"/>
-      <c r="C215" s="82" t="s">
+      <c r="A215" s="91"/>
+      <c r="B215" s="92"/>
+      <c r="C215" s="92" t="s">
         <v>222</v>
       </c>
-      <c r="D215" s="82"/>
-      <c r="E215" s="82"/>
+      <c r="D215" s="92"/>
+      <c r="E215" s="92"/>
       <c r="F215" s="36" t="s">
         <v>208</v>
       </c>
-      <c r="G215" s="44" t="s">
+      <c r="G215" s="41" t="s">
         <v>61</v>
       </c>
     </row>
@@ -9562,60 +9493,43 @@
       <c r="A216" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="C216" s="37"/>
-      <c r="D216" s="37"/>
-      <c r="E216" s="37"/>
-      <c r="F216" s="37"/>
-    </row>
-    <row r="217" spans="1:7">
-      <c r="C217" s="37"/>
-      <c r="D217" s="37"/>
-      <c r="E217" s="37"/>
-    </row>
-    <row r="218" spans="1:7">
-      <c r="C218" s="37"/>
-      <c r="D218" s="37"/>
-      <c r="E218" s="37"/>
     </row>
     <row r="219" spans="1:7" ht="15.75" thickBot="1">
       <c r="A219" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="C219" s="37"/>
-      <c r="D219" s="37"/>
-      <c r="E219" s="37"/>
     </row>
     <row r="220" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A220" s="45" t="s">
+      <c r="A220" s="42" t="s">
         <v>225</v>
       </c>
-      <c r="B220" s="83" t="s">
+      <c r="B220" s="93" t="s">
         <v>50</v>
       </c>
-      <c r="C220" s="83"/>
-      <c r="D220" s="83"/>
-      <c r="E220" s="83"/>
-      <c r="F220" s="46" t="s">
+      <c r="C220" s="93"/>
+      <c r="D220" s="93"/>
+      <c r="E220" s="93"/>
+      <c r="F220" s="43" t="s">
         <v>226</v>
       </c>
-      <c r="G220" s="47" t="s">
+      <c r="G220" s="44" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="221" spans="1:7" ht="93" customHeight="1">
-      <c r="A221" s="48" t="s">
+      <c r="A221" s="45" t="s">
         <v>228</v>
       </c>
-      <c r="B221" s="84" t="s">
+      <c r="B221" s="94" t="s">
         <v>229</v>
       </c>
-      <c r="C221" s="85"/>
-      <c r="D221" s="85"/>
-      <c r="E221" s="85"/>
-      <c r="F221" s="49" t="s">
+      <c r="C221" s="73"/>
+      <c r="D221" s="73"/>
+      <c r="E221" s="73"/>
+      <c r="F221" s="46" t="s">
         <v>104</v>
       </c>
-      <c r="G221" s="50" t="s">
+      <c r="G221" s="47" t="s">
         <v>61</v>
       </c>
     </row>
@@ -9623,12 +9537,12 @@
       <c r="A222" s="14" t="s">
         <v>230</v>
       </c>
-      <c r="B222" s="86" t="s">
+      <c r="B222" s="95" t="s">
         <v>231</v>
       </c>
-      <c r="C222" s="87"/>
-      <c r="D222" s="87"/>
-      <c r="E222" s="88"/>
+      <c r="C222" s="96"/>
+      <c r="D222" s="96"/>
+      <c r="E222" s="97"/>
       <c r="F222" s="15" t="s">
         <v>61</v>
       </c>
@@ -9640,12 +9554,12 @@
       <c r="A223" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="B223" s="86" t="s">
+      <c r="B223" s="95" t="s">
         <v>232</v>
       </c>
-      <c r="C223" s="87"/>
-      <c r="D223" s="87"/>
-      <c r="E223" s="88"/>
+      <c r="C223" s="96"/>
+      <c r="D223" s="96"/>
+      <c r="E223" s="97"/>
       <c r="F223" s="18" t="s">
         <v>61</v>
       </c>
@@ -9657,12 +9571,12 @@
       <c r="A224" s="20" t="s">
         <v>233</v>
       </c>
-      <c r="B224" s="89" t="s">
+      <c r="B224" s="78" t="s">
         <v>234</v>
       </c>
-      <c r="C224" s="82"/>
-      <c r="D224" s="82"/>
-      <c r="E224" s="82"/>
+      <c r="C224" s="92"/>
+      <c r="D224" s="92"/>
+      <c r="E224" s="92"/>
       <c r="F224" s="21" t="s">
         <v>61</v>
       </c>
@@ -9671,7 +9585,7 @@
       </c>
     </row>
     <row r="225" spans="1:7">
-      <c r="C225" s="51"/>
+      <c r="C225" s="48"/>
     </row>
     <row r="227" spans="1:7" ht="15.75" thickBot="1">
       <c r="A227" s="6" t="s">
@@ -9682,280 +9596,285 @@
       <c r="A228" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="B228" s="38" t="s">
+      <c r="B228" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="C228" s="52" t="s">
+      <c r="C228" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="D228" s="53" t="s">
+      <c r="D228" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="E228" s="53"/>
-      <c r="F228" s="54"/>
-      <c r="G228" s="40" t="s">
+      <c r="E228" s="50"/>
+      <c r="F228" s="10"/>
+      <c r="G228" s="38" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="229" spans="1:7">
-      <c r="A229" s="55">
+      <c r="A229" s="51">
         <v>42682</v>
       </c>
-      <c r="B229" s="56">
+      <c r="B229" s="52">
         <v>1.04</v>
       </c>
       <c r="C229" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="D229" s="77" t="s">
+      <c r="D229" s="90" t="s">
         <v>52</v>
       </c>
-      <c r="E229" s="77"/>
-      <c r="F229" s="77"/>
-      <c r="G229" s="57"/>
+      <c r="E229" s="90"/>
+      <c r="F229" s="90"/>
+      <c r="G229" s="25"/>
     </row>
     <row r="230" spans="1:7">
-      <c r="A230" s="58">
+      <c r="A230" s="53">
         <v>42692</v>
       </c>
-      <c r="B230" s="59">
+      <c r="B230" s="54">
         <v>1.05</v>
       </c>
       <c r="C230" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="D230" s="76" t="s">
+      <c r="D230" s="102" t="s">
         <v>53</v>
       </c>
-      <c r="E230" s="76"/>
-      <c r="F230" s="76"/>
-      <c r="G230" s="41"/>
+      <c r="E230" s="102"/>
+      <c r="F230" s="102"/>
+      <c r="G230" s="39"/>
     </row>
     <row r="231" spans="1:7">
-      <c r="A231" s="58">
+      <c r="A231" s="53">
         <v>42955</v>
       </c>
-      <c r="B231" s="59">
+      <c r="B231" s="54">
         <v>1.06</v>
       </c>
       <c r="C231" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="D231" s="76" t="s">
+      <c r="D231" s="102" t="s">
         <v>238</v>
       </c>
-      <c r="E231" s="76"/>
-      <c r="F231" s="76"/>
-      <c r="G231" s="41"/>
+      <c r="E231" s="102"/>
+      <c r="F231" s="102"/>
+      <c r="G231" s="39"/>
     </row>
     <row r="232" spans="1:7">
-      <c r="A232" s="58">
+      <c r="A232" s="53">
         <v>42991</v>
       </c>
-      <c r="B232" s="59">
+      <c r="B232" s="54">
         <v>1.07</v>
       </c>
       <c r="C232" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="D232" s="76" t="s">
+      <c r="D232" s="102" t="s">
         <v>239</v>
       </c>
-      <c r="E232" s="76"/>
-      <c r="F232" s="76"/>
-      <c r="G232" s="41"/>
+      <c r="E232" s="102"/>
+      <c r="F232" s="102"/>
+      <c r="G232" s="39"/>
     </row>
     <row r="233" spans="1:7">
-      <c r="A233" s="58">
+      <c r="A233" s="53">
         <v>43026</v>
       </c>
-      <c r="B233" s="59">
+      <c r="B233" s="54">
         <v>1.08</v>
       </c>
       <c r="C233" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="D233" s="76" t="s">
+      <c r="D233" s="102" t="s">
         <v>240</v>
       </c>
-      <c r="E233" s="76"/>
-      <c r="F233" s="76"/>
-      <c r="G233" s="41"/>
+      <c r="E233" s="102"/>
+      <c r="F233" s="102"/>
+      <c r="G233" s="39"/>
     </row>
     <row r="234" spans="1:7">
-      <c r="A234" s="58">
+      <c r="A234" s="53">
         <v>43069</v>
       </c>
-      <c r="B234" s="59">
+      <c r="B234" s="54">
         <v>1.0900000000000001</v>
       </c>
       <c r="C234" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="D234" s="76" t="s">
+      <c r="D234" s="102" t="s">
         <v>241</v>
       </c>
-      <c r="E234" s="76"/>
-      <c r="F234" s="76"/>
-      <c r="G234" s="41"/>
+      <c r="E234" s="102"/>
+      <c r="F234" s="102"/>
+      <c r="G234" s="39"/>
     </row>
     <row r="235" spans="1:7">
-      <c r="A235" s="60">
+      <c r="A235" s="55">
         <v>43248</v>
       </c>
-      <c r="B235" s="61">
+      <c r="B235" s="56">
         <v>1.1000000000000001</v>
       </c>
       <c r="C235" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="D235" s="72" t="s">
+      <c r="D235" s="98" t="s">
         <v>62</v>
       </c>
-      <c r="E235" s="73"/>
-      <c r="F235" s="74"/>
-      <c r="G235" s="43"/>
+      <c r="E235" s="99"/>
+      <c r="F235" s="100"/>
+      <c r="G235" s="40"/>
     </row>
     <row r="236" spans="1:7">
-      <c r="A236" s="60">
+      <c r="A236" s="55">
         <v>43339</v>
       </c>
-      <c r="B236" s="61">
+      <c r="B236" s="56">
         <v>1.1100000000000001</v>
       </c>
       <c r="C236" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="D236" s="72" t="s">
+      <c r="D236" s="98" t="s">
         <v>63</v>
       </c>
-      <c r="E236" s="73"/>
-      <c r="F236" s="74"/>
-      <c r="G236" s="43"/>
+      <c r="E236" s="99"/>
+      <c r="F236" s="100"/>
+      <c r="G236" s="40"/>
     </row>
     <row r="237" spans="1:7">
-      <c r="A237" s="60">
+      <c r="A237" s="55">
         <v>43542</v>
       </c>
-      <c r="B237" s="61">
+      <c r="B237" s="56">
         <v>1.1200000000000001</v>
       </c>
       <c r="C237" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="D237" s="72" t="s">
+      <c r="D237" s="98" t="s">
         <v>67</v>
       </c>
-      <c r="E237" s="73"/>
-      <c r="F237" s="74"/>
-      <c r="G237" s="43"/>
+      <c r="E237" s="99"/>
+      <c r="F237" s="100"/>
+      <c r="G237" s="40"/>
     </row>
     <row r="238" spans="1:7">
-      <c r="A238" s="60">
+      <c r="A238" s="55">
         <v>43599</v>
       </c>
-      <c r="B238" s="61">
+      <c r="B238" s="56">
         <v>1.1299999999999999</v>
       </c>
       <c r="C238" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="D238" s="62" t="s">
+      <c r="D238" s="57" t="s">
         <v>68</v>
       </c>
-      <c r="E238" s="63"/>
-      <c r="F238" s="64"/>
-      <c r="G238" s="43"/>
+      <c r="E238" s="58"/>
+      <c r="F238" s="59"/>
+      <c r="G238" s="40"/>
     </row>
     <row r="239" spans="1:7">
-      <c r="A239" s="60">
+      <c r="A239" s="55">
         <v>43643</v>
       </c>
-      <c r="B239" s="61">
+      <c r="B239" s="56">
         <v>1.1399999999999999</v>
       </c>
       <c r="C239" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="D239" s="62" t="s">
+      <c r="D239" s="57" t="s">
         <v>71</v>
       </c>
-      <c r="E239" s="63"/>
-      <c r="F239" s="64"/>
-      <c r="G239" s="43"/>
+      <c r="E239" s="58"/>
+      <c r="F239" s="59"/>
+      <c r="G239" s="40"/>
     </row>
     <row r="240" spans="1:7">
-      <c r="A240" s="60">
+      <c r="A240" s="55">
         <v>43894</v>
       </c>
-      <c r="B240" s="61">
+      <c r="B240" s="56">
         <v>1.1499999999999999</v>
       </c>
       <c r="C240" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="D240" s="62" t="s">
+      <c r="D240" s="57" t="s">
         <v>72</v>
       </c>
-      <c r="E240" s="63"/>
-      <c r="F240" s="64"/>
-      <c r="G240" s="43"/>
+      <c r="E240" s="58"/>
+      <c r="F240" s="59"/>
+      <c r="G240" s="40"/>
     </row>
     <row r="241" spans="1:7">
-      <c r="A241" s="60">
+      <c r="A241" s="55">
         <v>44017</v>
       </c>
-      <c r="B241" s="61">
+      <c r="B241" s="56">
         <v>1.1599999999999999</v>
       </c>
-      <c r="C241" s="42" t="s">
+      <c r="C241" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="D241" s="62" t="s">
+      <c r="D241" s="57" t="s">
         <v>242</v>
       </c>
-      <c r="E241" s="63"/>
-      <c r="F241" s="64"/>
-      <c r="G241" s="43"/>
+      <c r="E241" s="58"/>
+      <c r="F241" s="59"/>
+      <c r="G241" s="40"/>
     </row>
     <row r="242" spans="1:7">
-      <c r="A242" s="60">
+      <c r="A242" s="55">
         <v>44118</v>
       </c>
-      <c r="B242" s="61">
+      <c r="B242" s="56">
         <v>1.17</v>
       </c>
-      <c r="C242" s="67" t="s">
+      <c r="C242" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="D242" s="62" t="s">
+      <c r="D242" s="57" t="s">
         <v>254</v>
       </c>
-      <c r="E242" s="63"/>
-      <c r="F242" s="64"/>
-      <c r="G242" s="43"/>
+      <c r="E242" s="58"/>
+      <c r="F242" s="59"/>
+      <c r="G242" s="40"/>
     </row>
     <row r="243" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A243" s="65">
+      <c r="A243" s="60">
         <v>44209</v>
       </c>
-      <c r="B243" s="66">
+      <c r="B243" s="61">
         <v>1.18</v>
       </c>
       <c r="C243" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="D243" s="75" t="s">
+      <c r="D243" s="101" t="s">
         <v>257</v>
       </c>
-      <c r="E243" s="75"/>
-      <c r="F243" s="75"/>
-      <c r="G243" s="44"/>
+      <c r="E243" s="101"/>
+      <c r="F243" s="101"/>
+      <c r="G243" s="41"/>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="dSSGbMlehNtWlIHSSfftCqUMab+Sb0hooxQMUpoStERkR2/XS3ERiPNaNXV+uIt5I/NGfmkjhmoCMOi5hOXKdQ==" saltValue="4j3/9e0Khi55FR2zrD17vg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <customSheetViews>
-    <customSheetView guid="{39A3C600-CBEE-40C9-80F0-0CFC304055C6}" scale="115">
+    <customSheetView guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}" scale="115">
+      <selection activeCell="C4" sqref="C4"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait"/>
+    </customSheetView>
+    <customSheetView guid="{1F35143E-328B-4EDC-927C-C18A57070EA0}" scale="115">
       <selection activeCell="C4" sqref="C4"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait"/>
@@ -9965,24 +9884,42 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait"/>
     </customSheetView>
-    <customSheetView guid="{1F35143E-328B-4EDC-927C-C18A57070EA0}" scale="115">
-      <selection activeCell="C4" sqref="C4"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait"/>
-    </customSheetView>
-    <customSheetView guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}" scale="115">
+    <customSheetView guid="{39A3C600-CBEE-40C9-80F0-0CFC304055C6}" scale="115">
       <selection activeCell="C4" sqref="C4"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="51">
-    <mergeCell ref="B174:B176"/>
-    <mergeCell ref="F111:N111"/>
-    <mergeCell ref="B148:B160"/>
-    <mergeCell ref="B161:B162"/>
-    <mergeCell ref="B163:B165"/>
-    <mergeCell ref="B166:B173"/>
+    <mergeCell ref="D236:F236"/>
+    <mergeCell ref="D237:F237"/>
+    <mergeCell ref="D243:F243"/>
+    <mergeCell ref="D230:F230"/>
+    <mergeCell ref="D231:F231"/>
+    <mergeCell ref="D232:F232"/>
+    <mergeCell ref="D233:F233"/>
+    <mergeCell ref="D234:F234"/>
+    <mergeCell ref="D235:F235"/>
+    <mergeCell ref="D229:F229"/>
+    <mergeCell ref="A212:A215"/>
+    <mergeCell ref="B212:B213"/>
+    <mergeCell ref="C212:E212"/>
+    <mergeCell ref="C213:E213"/>
+    <mergeCell ref="B214:B215"/>
+    <mergeCell ref="C214:E214"/>
+    <mergeCell ref="C215:E215"/>
+    <mergeCell ref="B220:E220"/>
+    <mergeCell ref="B221:E221"/>
+    <mergeCell ref="B222:E222"/>
+    <mergeCell ref="B223:E223"/>
+    <mergeCell ref="B224:E224"/>
+    <mergeCell ref="A208:A211"/>
+    <mergeCell ref="B208:B209"/>
+    <mergeCell ref="C208:E208"/>
+    <mergeCell ref="C209:E209"/>
+    <mergeCell ref="B210:B211"/>
+    <mergeCell ref="C210:E210"/>
+    <mergeCell ref="C211:E211"/>
     <mergeCell ref="B177:B178"/>
     <mergeCell ref="B179:B185"/>
     <mergeCell ref="C199:E199"/>
@@ -9999,35 +9936,12 @@
     <mergeCell ref="B206:B207"/>
     <mergeCell ref="C206:E206"/>
     <mergeCell ref="C207:E207"/>
-    <mergeCell ref="A208:A211"/>
-    <mergeCell ref="B208:B209"/>
-    <mergeCell ref="C208:E208"/>
-    <mergeCell ref="C209:E209"/>
-    <mergeCell ref="B210:B211"/>
-    <mergeCell ref="C210:E210"/>
-    <mergeCell ref="C211:E211"/>
-    <mergeCell ref="D229:F229"/>
-    <mergeCell ref="A212:A215"/>
-    <mergeCell ref="B212:B213"/>
-    <mergeCell ref="C212:E212"/>
-    <mergeCell ref="C213:E213"/>
-    <mergeCell ref="B214:B215"/>
-    <mergeCell ref="C214:E214"/>
-    <mergeCell ref="C215:E215"/>
-    <mergeCell ref="B220:E220"/>
-    <mergeCell ref="B221:E221"/>
-    <mergeCell ref="B222:E222"/>
-    <mergeCell ref="B223:E223"/>
-    <mergeCell ref="B224:E224"/>
-    <mergeCell ref="D236:F236"/>
-    <mergeCell ref="D237:F237"/>
-    <mergeCell ref="D243:F243"/>
-    <mergeCell ref="D230:F230"/>
-    <mergeCell ref="D231:F231"/>
-    <mergeCell ref="D232:F232"/>
-    <mergeCell ref="D233:F233"/>
-    <mergeCell ref="D234:F234"/>
-    <mergeCell ref="D235:F235"/>
+    <mergeCell ref="B174:B176"/>
+    <mergeCell ref="F111:N111"/>
+    <mergeCell ref="B148:B160"/>
+    <mergeCell ref="B161:B162"/>
+    <mergeCell ref="B163:B165"/>
+    <mergeCell ref="B166:B173"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -10046,27 +9960,27 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <customSheetViews>
-    <customSheetView guid="{39A3C600-CBEE-40C9-80F0-0CFC304055C6}" topLeftCell="D10">
-      <selection activeCell="J8" sqref="J8"/>
+    <customSheetView guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+    <customSheetView guid="{179F0E1F-F6F7-410E-B883-54B8A90BA550}">
+      <selection activeCell="E26" sqref="E26"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+    <customSheetView guid="{16B2C8B3-13FA-43FB-96C1-3763C72619A6}">
+      <selection activeCell="E26" sqref="E26"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+    <customSheetView guid="{1F35143E-328B-4EDC-927C-C18A57070EA0}" topLeftCell="D295">
+      <selection activeCell="A4" sqref="A4:AE331"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
     <customSheetView guid="{4BA09E17-24A5-4F6D-8CB6-7B3DF9B00FDE}" topLeftCell="D10">
       <selection activeCell="J8" sqref="J8"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{1F35143E-328B-4EDC-927C-C18A57070EA0}" topLeftCell="D295">
-      <selection activeCell="A4" sqref="A4:AE331"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{16B2C8B3-13FA-43FB-96C1-3763C72619A6}">
-      <selection activeCell="E26" sqref="E26"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{179F0E1F-F6F7-410E-B883-54B8A90BA550}">
-      <selection activeCell="E26" sqref="E26"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}">
+    <customSheetView guid="{39A3C600-CBEE-40C9-80F0-0CFC304055C6}" topLeftCell="D10">
+      <selection activeCell="J8" sqref="J8"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
